--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-502431.4483876986</v>
+        <v>-505068.4040052218</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>85.40517917647105</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>206.6163368540819</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>122.7504484609356</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.77671159932513</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>29.21043313714424</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>315.2816144195903</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>42.59827455066768</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>124.2685731693596</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>159.4121108367173</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>140.8055058059665</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>200.4405857399952</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>45.3045756114327</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>48.56449214579338</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>73.98898794535489</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>21.35866177150483</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>7.069540131684477</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784708</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>42.5313457611381</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>121.0056618329833</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634833</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>100.9410961977592</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>177.6965697803346</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>29.95900124023845</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>111.3213230702134</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.594095449514619</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>150.8783572808984</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>80.11763046889914</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>142.3575218158278</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652652</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652619</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>987.178372674844</v>
+        <v>990.2034880760491</v>
       </c>
       <c r="C2" t="n">
-        <v>618.2158557344324</v>
+        <v>903.9356303220379</v>
       </c>
       <c r="D2" t="n">
-        <v>259.9501571276818</v>
+        <v>545.6699317152875</v>
       </c>
       <c r="E2" t="n">
-        <v>51.24678656800311</v>
+        <v>545.6699317152875</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>545.6699317152875</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.01262627016</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>1747.243971000046</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X2" t="n">
-        <v>1373.778212738966</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.778212738966</v>
+        <v>990.2034880760491</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4407,28 +4407,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>458.7060632252739</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.556931114679</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350.1023241168326</v>
+        <v>228.6653681677136</v>
       </c>
       <c r="C4" t="n">
-        <v>350.1023241168326</v>
+        <v>228.6653681677136</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>228.6653681677136</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>80.75227458532052</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>80.75227458532052</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>80.75227458532052</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,25 +4486,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269233</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1158.783151063346</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W4" t="n">
-        <v>869.3659810263853</v>
+        <v>638.3033838959707</v>
       </c>
       <c r="X4" t="n">
-        <v>641.3764301283679</v>
+        <v>410.3138329979533</v>
       </c>
       <c r="Y4" t="n">
-        <v>420.5838509848378</v>
+        <v>410.3138329979533</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1071.22480659549</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="C5" t="n">
-        <v>1071.22480659549</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="D5" t="n">
-        <v>1071.22480659549</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E5" t="n">
-        <v>685.4365539972453</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
         <v>355.3059305704328</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2519.310768247966</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2265.729707512146</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2265.729707512146</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.290404920691</v>
+        <v>1912.961052242031</v>
       </c>
       <c r="X5" t="n">
-        <v>1457.824646659611</v>
+        <v>1912.961052242031</v>
       </c>
       <c r="Y5" t="n">
-        <v>1457.824646659611</v>
+        <v>1522.82172026622</v>
       </c>
     </row>
     <row r="6">
@@ -4650,22 +4650,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>638.3296170496759</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.0018823909472</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C7" t="n">
-        <v>666.0018823909472</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786115</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1287.943827987051</v>
       </c>
       <c r="V7" t="n">
-        <v>1337.23396574994</v>
+        <v>1287.943827987051</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.81679571298</v>
+        <v>998.5266579500903</v>
       </c>
       <c r="X7" t="n">
-        <v>886.7944615344774</v>
+        <v>770.537107052073</v>
       </c>
       <c r="Y7" t="n">
-        <v>666.0018823909472</v>
+        <v>549.7445279085429</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1336.407536033267</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="C8" t="n">
-        <v>967.4450190928551</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="D8" t="n">
-        <v>609.1793204861046</v>
+        <v>1146.776328918641</v>
       </c>
       <c r="E8" t="n">
-        <v>609.1793204861046</v>
+        <v>1146.776328918641</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437142</v>
+        <v>735.7904241290332</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800308</v>
+        <v>320.0856738533221</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800308</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.593687005979</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270158</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.012626270158</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.012626270158</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1726.546868009078</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1336.407536033267</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>114.5432626034352</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>299.2648838844851</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>593.9684409159568</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>957.2304598751767</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>644.1412202705737</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="C10" t="n">
-        <v>475.2050373426669</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D10" t="n">
-        <v>325.0883979303312</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E10" t="n">
-        <v>325.0883979303312</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1590.683922487191</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1590.683922487191</v>
+        <v>1390.76232966285</v>
       </c>
       <c r="U10" t="n">
-        <v>1590.683922487191</v>
+        <v>1390.76232966285</v>
       </c>
       <c r="V10" t="n">
-        <v>1335.999434281304</v>
+        <v>1390.76232966285</v>
       </c>
       <c r="W10" t="n">
-        <v>1046.582264244344</v>
+        <v>1101.345159625889</v>
       </c>
       <c r="X10" t="n">
-        <v>1046.582264244344</v>
+        <v>1101.345159625889</v>
       </c>
       <c r="Y10" t="n">
-        <v>825.7896851008135</v>
+        <v>1101.345159625889</v>
       </c>
     </row>
     <row r="11">
@@ -5021,40 +5021,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>150.8995423128889</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>335.7491137930464</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>168.5530145079263</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2312.991837396757</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.916610740955</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>633.9926444679666</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>486.0795508855734</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1896033876631</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
         <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>696.708435085168</v>
       </c>
       <c r="C19" t="n">
-        <v>734.6461798836013</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="D19" t="n">
-        <v>734.6461798836013</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>586.7330863012082</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>439.8431388032978</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5668,55 +5668,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,64 +5738,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654462</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891998</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>801.6918836311999</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2267.47159895366</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T22" t="n">
-        <v>2267.47159895366</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>983.3403484614396</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>432.9862109052762</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2267.47159895366</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2267.47159895366</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6239,34 +6239,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.3345878491255</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>634.3345878491255</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>486.4214942667323</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
@@ -6470,19 +6470,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6929,13 +6929,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6953,34 +6953,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1092.345997432835</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>923.4098145049279</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="38">
@@ -7166,46 +7166,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192269</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111683</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075776</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332384</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7476,40 +7476,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7625,40 +7625,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,28 +7667,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7713,40 +7713,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7831,22 +7831,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>35.91627445172509</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>45.76488231024541</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>45.76488231024547</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>294.834493518473</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9556134883069518</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>175.3140332181798</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>197.4287704685136</v>
+        <v>288.7972543120184</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.30572490086897</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520937</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>144.165476520764</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>211.5151132204103</v>
       </c>
     </row>
     <row r="17">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-1.715617043683746e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570743</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>44.51847645928558</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>66.3057249008686</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>3.329716221310008</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>115.4620467826928</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>69.70496293143118</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>143.8269525734166</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>74.83129810813878</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>137.2878198583891</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>6.257951202384533</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,19 +25360,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-3.552713678800501e-13</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-5.704326028209812e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-3.765876499528531e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1016379.805245519</v>
+        <v>1016379.805245518</v>
       </c>
     </row>
     <row r="3">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758986</v>
+        <v>229059.6437758985</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.575205892</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
+        <v>262322.6448992519</v>
+      </c>
+      <c r="F2" t="n">
+        <v>262322.6448992519</v>
+      </c>
+      <c r="G2" t="n">
         <v>262322.644899252</v>
-      </c>
-      <c r="F2" t="n">
-        <v>262322.644899252</v>
-      </c>
-      <c r="G2" t="n">
-        <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
         <v>262322.644899252</v>
@@ -26347,7 +26347,7 @@
         <v>262322.6448992519</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
         <v>266838.5752058923</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,19 +26378,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.63739218300907e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099822</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65562.12618427632</v>
+        <v>65562.12618427622</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707331</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>6897.424496707238</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707381</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707331</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707343</v>
-      </c>
       <c r="K4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707328</v>
       </c>
       <c r="L4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707399</v>
+        <v>6897.424496707335</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.28375980085</v>
+        <v>14888.2837598008</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980092</v>
       </c>
       <c r="P4" t="n">
         <v>14888.28375980082</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26482,10 +26482,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1044192.038424142</v>
+        <v>-1044482.645588988</v>
       </c>
       <c r="C6" t="n">
-        <v>41991.07593442278</v>
+        <v>41991.07593442238</v>
       </c>
       <c r="D6" t="n">
-        <v>41991.07593442245</v>
+        <v>41991.07593442251</v>
       </c>
       <c r="E6" t="n">
-        <v>-353182.7510459085</v>
+        <v>-353217.4889713443</v>
       </c>
       <c r="F6" t="n">
-        <v>154302.6905786376</v>
+        <v>154267.9526532017</v>
       </c>
       <c r="G6" t="n">
-        <v>154302.6905786374</v>
+        <v>154267.9526532015</v>
       </c>
       <c r="H6" t="n">
-        <v>154302.6905786375</v>
+        <v>154267.9526532019</v>
       </c>
       <c r="I6" t="n">
-        <v>154302.6905786372</v>
+        <v>154267.9526532017</v>
       </c>
       <c r="J6" t="n">
-        <v>-13302.48723134511</v>
+        <v>-13337.22515678039</v>
       </c>
       <c r="K6" t="n">
-        <v>154302.6905786375</v>
+        <v>154267.9526532015</v>
       </c>
       <c r="L6" t="n">
-        <v>154302.6905786378</v>
+        <v>154267.9526532018</v>
       </c>
       <c r="M6" t="n">
-        <v>21695.39684971071</v>
+        <v>21660.65892427506</v>
       </c>
       <c r="N6" t="n">
-        <v>129358.4575985443</v>
+        <v>129358.4575985444</v>
       </c>
       <c r="O6" t="n">
-        <v>148786.1755921761</v>
+        <v>148786.175592176</v>
       </c>
       <c r="P6" t="n">
-        <v>148786.1755921761</v>
+        <v>148786.1755921762</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,16 +26802,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,25 +26966,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000382</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>279.8677125945365</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>214.1189323044404</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.0552685826122</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>118.0410760179846</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,16 +27585,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27619,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>91.59443132212118</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>164.0599104295661</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>161.958580951841</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>66.29754455231986</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>266.0705399357449</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>100.5779668224101</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>149.3578847503048</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>172.1842038514185</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.808478420751526e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4971006716334</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968498</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>316.0872899694772</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192546</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>592.1874941409593</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067199</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>222.5037706952099</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>295.4444114337778</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>343.4452429480956</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>630.259175514596</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
@@ -35036,7 +35036,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>63.93583437922435</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>57.6594740049667</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>173.4910455250327</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359212</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>453.6331143610851</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36838,7 +36838,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193518</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236314005</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
         <v>144.686904791938</v>
